--- a/Predictions_QWEN0.5B/wave1234_all_predictions/prefinetuned_predictions_imputedw1234.xlsx
+++ b/Predictions_QWEN0.5B/wave1234_all_predictions/prefinetuned_predictions_imputedw1234.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD_Yearwise_Materials\PhD Year 3 Materials\NLPOR 2025\LLM-NLPOR-Work\Predictions_QWEN0.5B\wave1234_all_predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F3A213-B669-4118-916F-F65456A879C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25195C0-9D96-4A0B-9067-B428330E796D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="14">
   <si>
     <t>Predicted_Label</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>accuracy</t>
+  </si>
+  <si>
+    <t>f_0</t>
+  </si>
+  <si>
+    <t>f_c</t>
+  </si>
+  <si>
+    <t>Sigma_k</t>
   </si>
 </sst>
 </file>
@@ -2531,7 +2540,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40E9D0C7-3C7B-403A-AA5C-6F72DAD48EAD}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40E9D0C7-3C7B-403A-AA5C-6F72DAD48EAD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E3:I7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -2883,7 +2892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I586"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3027,6 +3038,12 @@
       <c r="F10">
         <v>0</v>
       </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>318</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -3042,6 +3059,12 @@
         <f>318/585</f>
         <v>0.54358974358974355</v>
       </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>318</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -3057,6 +3080,13 @@
       </c>
       <c r="B13" t="s">
         <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <f>SQRT(I10*(1-(I10/585)))/(585-I11)</f>
+        <v>4.5121132993955454E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
